--- a/Proximos Gastos.xlsx
+++ b/Proximos Gastos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cargillonline-my.sharepoint.com/personal/german_giunta_cargill_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cargillonline-my.sharepoint.com/personal/german_giunta_cargill_com/Documents/Documents/GitPersonal/GIT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{6FEB5AC4-04CD-4BEB-B7EE-1D516B5D9C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8698B6AC-81E5-4E20-AC13-F994D1734AF5}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{6FEB5AC4-04CD-4BEB-B7EE-1D516B5D9C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E5C3BE-982A-4399-A0AB-AB44B84FF4D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{5485D525-2D2B-4A50-A4C7-EED8EA323EF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5485D525-2D2B-4A50-A4C7-EED8EA323EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Dolarucos" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Fecha</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Patente</t>
   </si>
   <si>
-    <t>Netflix + Spotify</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>Nafta</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Cochera Volvo</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>Tarjeta Amex</t>
   </si>
   <si>
-    <t>Jul</t>
-  </si>
-  <si>
     <t>Ago</t>
   </si>
   <si>
@@ -242,9 +233,6 @@
     <t>Gastos en Dolares Amex</t>
   </si>
   <si>
-    <t>Tratamiento Journey</t>
-  </si>
-  <si>
     <t>Interio Caro</t>
   </si>
   <si>
@@ -255,6 +243,12 @@
   </si>
   <si>
     <t>Irina + Mica + Irma (Leyes)</t>
+  </si>
+  <si>
+    <t>Streaming + Apple</t>
+  </si>
+  <si>
+    <t>Nov</t>
   </si>
 </sst>
 </file>
@@ -348,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,12 +469,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -579,7 +567,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -717,8 +705,6 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,6 +740,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1106,7 +1096,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2">
         <v>7500</v>
@@ -1282,18 +1272,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1886,16 +1876,18 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="1.85546875" customWidth="1"/>
     <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
@@ -1909,21 +1901,21 @@
         <v>16</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="76"/>
+      <c r="K1" s="74"/>
       <c r="M1" s="20" t="s">
         <v>15</v>
       </c>
@@ -1933,28 +1925,26 @@
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="49">
-        <v>203000</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="J2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="71">
+      <c r="K2" s="61">
         <v>1400</v>
       </c>
       <c r="M2" s="21">
-        <v>1300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1963,7 +1953,7 @@
       <c r="J3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="71">
+      <c r="K3" s="61">
         <v>14300</v>
       </c>
       <c r="M3" s="6" t="s">
@@ -1973,15 +1963,15 @@
         <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="67">
-        <v>11</v>
+        <v>18.84</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1990,7 +1980,7 @@
       <c r="J4" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="71">
+      <c r="K4" s="61">
         <v>560</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -2003,7 +1993,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -2012,65 +2002,61 @@
       <c r="J5" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="71">
+      <c r="K5" s="61">
         <v>2100</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="25">
-        <v>200000</v>
-      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="J6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="61">
         <v>25400</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68">
+        <v>62</v>
+      </c>
+      <c r="C7" s="68">
         <v>65002</v>
       </c>
+      <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="59"/>
       <c r="J7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="61">
         <v>29000</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="49"/>
+        <v>65</v>
+      </c>
+      <c r="C8" s="49">
+        <v>-23540</v>
+      </c>
       <c r="D8" s="49">
         <v>-23540</v>
       </c>
-      <c r="E8" s="49">
-        <v>-23540</v>
-      </c>
+      <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="J8" s="54" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="61">
-        <v>15500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2080,22 +2066,19 @@
       </c>
       <c r="C9" s="25">
         <f>$K$20</f>
-        <v>824082</v>
+        <v>844582</v>
       </c>
       <c r="D9" s="25">
         <f>$K$20</f>
-        <v>824082</v>
+        <v>844582</v>
       </c>
       <c r="E9" s="25">
         <f>$K$20</f>
-        <v>824082</v>
-      </c>
-      <c r="F9" s="25">
-        <f>$K$20</f>
-        <v>824082</v>
-      </c>
+        <v>844582</v>
+      </c>
+      <c r="F9" s="25"/>
       <c r="J9" s="54" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K9" s="61">
         <v>165000</v>
@@ -2117,23 +2100,20 @@
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="17">
-        <f t="shared" ref="C11" si="0">SUM(C2:C10)</f>
-        <v>1227082</v>
+        <f t="shared" ref="C11:F11" si="0">SUM(C2:C10)</f>
+        <v>886044</v>
       </c>
       <c r="D11" s="17">
-        <f t="shared" ref="D11:F11" si="1">SUM(D2:D10)</f>
-        <v>865544</v>
+        <f t="shared" si="0"/>
+        <v>821042</v>
       </c>
       <c r="E11" s="17">
-        <f t="shared" si="1"/>
-        <v>800542</v>
-      </c>
-      <c r="F11" s="17">
-        <f t="shared" si="1"/>
-        <v>824082</v>
-      </c>
+        <f t="shared" ref="E11" si="1">SUM(E2:E10)</f>
+        <v>844582</v>
+      </c>
+      <c r="F11" s="17"/>
       <c r="J11" s="56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K11" s="62">
         <v>93000</v>
@@ -2147,9 +2127,9 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="J12" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="72">
+        <v>55</v>
+      </c>
+      <c r="K12" s="62">
         <v>40800</v>
       </c>
     </row>
@@ -2158,16 +2138,14 @@
         <v>17</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="25">
-        <v>450000</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="J13" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13" s="61">
         <v>52000</v>
@@ -2178,14 +2156,12 @@
       <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="25">
-        <v>5567000</v>
-      </c>
+      <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="J14" s="54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K14" s="61">
         <v>54000</v>
@@ -2194,7 +2170,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -2203,7 +2179,7 @@
       <c r="J15" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="71">
+      <c r="K15" s="61">
         <v>285722</v>
       </c>
     </row>
@@ -2217,25 +2193,21 @@
       <c r="J16" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="71">
+      <c r="K16" s="61">
         <v>15000</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="25">
-        <v>-3350000</v>
-      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="J17" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="71">
+      <c r="K17" s="61">
         <v>14800</v>
       </c>
     </row>
@@ -2244,24 +2216,21 @@
         <v>22</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="17">
-        <f t="shared" ref="C18" si="2">SUM(C13:C17)</f>
-        <v>2667000</v>
-      </c>
-      <c r="D18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17">
+        <f t="shared" ref="D18" si="2">SUM(D13:D17)</f>
+        <v>0</v>
+      </c>
       <c r="E18" s="17">
-        <f t="shared" ref="E18" si="3">SUM(E13:E17)</f>
+        <f t="shared" ref="E18:F18" si="3">SUM(E13:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="17">
-        <f t="shared" ref="F18" si="4">SUM(F13:F17)</f>
-        <v>0</v>
-      </c>
+      <c r="F18" s="17"/>
       <c r="J18" s="54" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K18" s="61">
-        <v>15500</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -2270,38 +2239,32 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="22">
-        <f t="shared" ref="C20" si="5">SUM(C18-C11)</f>
-        <v>1439918</v>
+        <f t="shared" ref="C20:D20" si="4">SUM(C18-C11)</f>
+        <v>-886044</v>
       </c>
       <c r="D20" s="22">
-        <f t="shared" ref="D20:E20" si="6">SUM(D18-D11)</f>
-        <v>-865544</v>
+        <f t="shared" si="4"/>
+        <v>-821042</v>
       </c>
       <c r="E20" s="22">
-        <f t="shared" si="6"/>
-        <v>-800542</v>
-      </c>
-      <c r="F20" s="22">
-        <f t="shared" ref="F20" si="7">SUM(F18-F11)</f>
-        <v>-824082</v>
-      </c>
+        <f t="shared" ref="E20:F20" si="5">SUM(E18-E11)</f>
+        <v>-844582</v>
+      </c>
+      <c r="F20" s="22"/>
       <c r="J20" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" s="30">
         <f>SUM(K2:K18)</f>
-        <v>824082</v>
+        <v>844582</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B23" s="70">
         <v>300000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2348,14 +2311,17 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="60"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="60"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="60"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="60"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="60"/>
     </row>
   </sheetData>
@@ -2384,43 +2350,43 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="36">
         <v>21158.32</v>
@@ -2449,7 +2415,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="36">
         <v>4130.45</v>
@@ -2475,7 +2441,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="36">
         <v>1901.09</v>
@@ -2501,7 +2467,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="36">
         <v>5108.7</v>
@@ -2527,7 +2493,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="36">
         <v>3650</v>
@@ -3692,7 +3658,7 @@
     </row>
     <row r="71" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71" s="1">
         <f>SUM(B2:B70)</f>

--- a/Proximos Gastos.xlsx
+++ b/Proximos Gastos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cargillonline-my.sharepoint.com/personal/german_giunta_cargill_com/Documents/Documents/GitPersonal/GIT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GiuntaG/Documents/GitHub/GIT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{6FEB5AC4-04CD-4BEB-B7EE-1D516B5D9C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E5C3BE-982A-4399-A0AB-AB44B84FF4D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E7B4BD-1105-D848-875A-3396B0E3DBD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5485D525-2D2B-4A50-A4C7-EED8EA323EF4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5485D525-2D2B-4A50-A4C7-EED8EA323EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Dolarucos" sheetId="2" r:id="rId1"/>
@@ -256,9 +256,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;\ * #,##0.0_ ;_ &quot;$&quot;\ * \-#,##0.0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_ &quot;$&quot;\ * #,##0.0_ ;_ &quot;$&quot;\ * \-#,##0.0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -564,13 +564,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,7 +579,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -589,7 +589,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -605,7 +605,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,12 +618,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,41 +631,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,34 +677,31 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,6 +713,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1049,17 +1052,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="12.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="13.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="11.42578125" style="60"/>
+    <col min="2" max="3" width="12.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.1640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="11.5" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1097,7 @@
       <c r="T1" s="63"/>
       <c r="U1" s="63"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>37</v>
       </c>
@@ -1129,7 +1132,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +1167,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -1186,7 +1189,7 @@
       <c r="T4" s="64"/>
       <c r="U4" s="64"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1271,21 +1274,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+    </row>
+    <row r="8" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>348000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>44652</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>44678</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>44714</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>44747</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>44774</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>44809</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>44958</v>
       </c>
@@ -1628,7 +1631,7 @@
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="48">
         <v>45021</v>
       </c>
@@ -1647,7 +1650,7 @@
       <c r="G23" s="65"/>
       <c r="H23" s="65"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="48">
         <v>45049</v>
       </c>
@@ -1666,7 +1669,7 @@
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="48">
         <v>45049</v>
       </c>
@@ -1685,7 +1688,7 @@
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="48">
         <v>45093</v>
       </c>
@@ -1704,7 +1707,7 @@
       <c r="G26" s="65"/>
       <c r="H26" s="65"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="48">
         <v>45110</v>
       </c>
@@ -1723,7 +1726,7 @@
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="48">
         <v>45126</v>
       </c>
@@ -1742,7 +1745,7 @@
       <c r="G28" s="65"/>
       <c r="H28" s="65"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="48">
         <v>45139</v>
       </c>
@@ -1761,7 +1764,7 @@
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -1771,7 +1774,7 @@
       <c r="G30" s="65"/>
       <c r="H30" s="65"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="7"/>
       <c r="C31" s="65"/>
@@ -1781,7 +1784,7 @@
       <c r="G31" s="65"/>
       <c r="H31" s="65"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1791,7 +1794,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1801,7 +1804,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1811,7 +1814,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1821,7 +1824,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1831,7 +1834,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1841,7 +1844,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1851,7 +1854,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1876,26 +1879,26 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="1.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.83203125" customWidth="1"/>
+    <col min="10" max="10" width="24.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="32"/>
       <c r="B1" s="32" t="s">
         <v>16</v>
@@ -1912,15 +1915,15 @@
       <c r="F1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="74"/>
+      <c r="K1" s="73"/>
       <c r="M1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="14" t="s">
         <v>58</v>
@@ -1966,7 +1969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="67">
         <v>18.84</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="58" t="s">
         <v>64</v>
@@ -2006,7 +2009,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
@@ -2020,7 +2023,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="52" t="s">
         <v>62</v>
@@ -2039,7 +2042,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="69" t="s">
         <v>65</v>
@@ -2059,7 +2062,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
         <v>14</v>
@@ -2084,7 +2087,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="24"/>
       <c r="C10" s="33"/>
@@ -2094,13 +2097,13 @@
       <c r="J10" s="55"/>
       <c r="K10" s="57"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="17">
-        <f t="shared" ref="C11:F11" si="0">SUM(C2:C10)</f>
+        <f t="shared" ref="C11:D11" si="0">SUM(C2:C10)</f>
         <v>886044</v>
       </c>
       <c r="D11" s="17">
@@ -2119,7 +2122,7 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -2133,7 +2136,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="24" t="s">
         <v>18</v>
@@ -2167,7 +2170,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="8" t="s">
         <v>61</v>
@@ -2183,7 +2186,7 @@
         <v>285722</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -2197,7 +2200,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2211,7 +2214,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>22</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="17">
-        <f t="shared" ref="E18:F18" si="3">SUM(E13:E17)</f>
+        <f t="shared" ref="E18" si="3">SUM(E13:E17)</f>
         <v>0</v>
       </c>
       <c r="F18" s="17"/>
@@ -2233,7 +2236,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>-821042</v>
       </c>
       <c r="E20" s="22">
-        <f t="shared" ref="E20:F20" si="5">SUM(E18-E11)</f>
+        <f t="shared" ref="E20" si="5">SUM(E18-E11)</f>
         <v>-844582</v>
       </c>
       <c r="F20" s="22"/>
@@ -2259,67 +2262,67 @@
         <v>844582</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B23" s="75">
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
       <c r="F29" s="60"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="60"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="60"/>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
@@ -2342,13 +2345,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>38</v>
       </c>
@@ -2384,7 +2387,7 @@
       </c>
       <c r="N1" s="47"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>49</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>130602</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
         <v>50</v>
       </c>
@@ -2439,7 +2442,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>51</v>
       </c>
@@ -2465,7 +2468,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
         <v>52</v>
       </c>
@@ -2491,7 +2494,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
         <v>36</v>
       </c>
@@ -2517,7 +2520,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="36">
         <v>2607.06</v>
       </c>
@@ -2540,7 +2543,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="36">
         <v>4529.43</v>
       </c>
@@ -2563,7 +2566,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="36">
         <v>1470.31</v>
       </c>
@@ -2586,7 +2589,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="36">
         <v>8867.19</v>
       </c>
@@ -2609,7 +2612,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="36">
         <v>12000</v>
       </c>
@@ -2632,7 +2635,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="35">
         <v>420</v>
       </c>
@@ -2655,7 +2658,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="35">
         <v>5757</v>
       </c>
@@ -2678,7 +2681,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="35">
         <v>1543</v>
       </c>
@@ -2701,7 +2704,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="35">
         <v>1284</v>
       </c>
@@ -2724,7 +2727,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="35">
         <v>2948</v>
       </c>
@@ -2747,7 +2750,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="35">
         <v>3200</v>
       </c>
@@ -2770,7 +2773,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="37">
         <v>5199</v>
       </c>
@@ -2793,7 +2796,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="37">
         <v>5019</v>
       </c>
@@ -2816,7 +2819,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
         <v>1604</v>
       </c>
@@ -2839,7 +2842,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="37">
         <v>3184</v>
       </c>
@@ -2862,7 +2865,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
         <v>2374</v>
       </c>
@@ -2885,7 +2888,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="35">
         <v>1450</v>
       </c>
@@ -2908,7 +2911,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="35">
         <v>4310</v>
       </c>
@@ -2931,7 +2934,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="35">
         <v>540</v>
       </c>
@@ -2953,7 +2956,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="35">
         <v>3313.44</v>
       </c>
@@ -2976,7 +2979,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="35">
         <v>2700</v>
       </c>
@@ -2999,7 +3002,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="35">
         <v>950</v>
       </c>
@@ -3022,7 +3025,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="40">
         <v>6000</v>
       </c>
@@ -3045,7 +3048,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="40">
         <v>4900</v>
       </c>
@@ -3068,7 +3071,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="40">
         <v>8300</v>
       </c>
@@ -3089,7 +3092,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="40">
         <v>6000</v>
       </c>
@@ -3110,7 +3113,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <v>6800</v>
       </c>
@@ -3131,7 +3134,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="46">
@@ -3150,7 +3153,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -3167,7 +3170,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -3184,7 +3187,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -3201,7 +3204,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -3218,7 +3221,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -3235,7 +3238,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -3252,7 +3255,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -3269,7 +3272,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -3286,7 +3289,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -3303,7 +3306,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -3320,7 +3323,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3337,7 +3340,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -3352,7 +3355,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -3367,7 +3370,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3383,7 +3386,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -3396,7 +3399,7 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -3409,7 +3412,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -3422,7 +3425,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3435,7 +3438,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -3448,7 +3451,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -3461,7 +3464,7 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3474,7 +3477,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -3487,7 +3490,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -3500,7 +3503,7 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3513,7 +3516,7 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -3526,7 +3529,7 @@
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -3539,7 +3542,7 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3552,7 +3555,7 @@
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -3565,7 +3568,7 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3578,7 +3581,7 @@
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3591,7 +3594,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -3604,7 +3607,7 @@
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3617,7 +3620,7 @@
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -3630,7 +3633,7 @@
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -3643,7 +3646,7 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -3656,7 +3659,7 @@
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
     </row>
-    <row r="71" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
         <v>33</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B73" s="38"/>
       <c r="C73" s="39">
         <f>(C71-B71)/B71</f>

--- a/Proximos Gastos.xlsx
+++ b/Proximos Gastos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GiuntaG/Documents/GitHub/GIT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cargillonline-my.sharepoint.com/personal/german_giunta_cargill_com/Documents/Documents/GitPersonal/GIT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E7B4BD-1105-D848-875A-3396B0E3DBD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{29E7B4BD-1105-D848-875A-3396B0E3DBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA146DF4-653F-4685-A6F8-0F437F513433}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5485D525-2D2B-4A50-A4C7-EED8EA323EF4}"/>
+    <workbookView xWindow="12900" yWindow="5535" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{5485D525-2D2B-4A50-A4C7-EED8EA323EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Dolarucos" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>Fecha</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Gastos Casa</t>
-  </si>
-  <si>
     <t>Valor Dólar</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>VisaHome</t>
   </si>
   <si>
-    <t>Remanente Dinero</t>
-  </si>
-  <si>
     <t>Extras</t>
   </si>
   <si>
@@ -249,6 +243,9 @@
   </si>
   <si>
     <t>Nov</t>
+  </si>
+  <si>
+    <t>Gastos Fijos</t>
   </si>
 </sst>
 </file>
@@ -256,9 +253,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_ &quot;$&quot;\ * #,##0.0_ ;_ &quot;$&quot;\ * \-#,##0.0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;\ * #,##0.0_ ;_ &quot;$&quot;\ * \-#,##0.0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -564,13 +561,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,7 +576,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -589,7 +586,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -605,7 +602,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,12 +615,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,41 +628,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,31 +674,37 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,12 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1052,17 +1049,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.33203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.1640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="11.5" style="60"/>
+    <col min="2" max="3" width="12.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="13.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="11.42578125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1097,9 +1094,9 @@
       <c r="T1" s="63"/>
       <c r="U1" s="63"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2">
         <v>7500</v>
@@ -1132,7 +1129,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1167,7 +1164,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -1189,7 +1186,7 @@
       <c r="T4" s="64"/>
       <c r="U4" s="64"/>
     </row>
-    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1274,21 +1271,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+    <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-    </row>
-    <row r="8" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1339,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1367,7 @@
         <v>348000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -1392,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -1458,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>44652</v>
       </c>
@@ -1502,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>44678</v>
       </c>
@@ -1524,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>44714</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>44747</v>
       </c>
@@ -1568,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>44774</v>
       </c>
@@ -1590,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>44809</v>
       </c>
@@ -1612,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>44958</v>
       </c>
@@ -1631,7 +1628,7 @@
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="48">
         <v>45021</v>
       </c>
@@ -1650,7 +1647,7 @@
       <c r="G23" s="65"/>
       <c r="H23" s="65"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="48">
         <v>45049</v>
       </c>
@@ -1669,7 +1666,7 @@
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="48">
         <v>45049</v>
       </c>
@@ -1688,7 +1685,7 @@
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="48">
         <v>45093</v>
       </c>
@@ -1707,7 +1704,7 @@
       <c r="G26" s="65"/>
       <c r="H26" s="65"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="48">
         <v>45110</v>
       </c>
@@ -1726,7 +1723,7 @@
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="48">
         <v>45126</v>
       </c>
@@ -1745,7 +1742,7 @@
       <c r="G28" s="65"/>
       <c r="H28" s="65"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="48">
         <v>45139</v>
       </c>
@@ -1764,7 +1761,7 @@
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -1774,7 +1771,7 @@
       <c r="G30" s="65"/>
       <c r="H30" s="65"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="7"/>
       <c r="C31" s="65"/>
@@ -1784,7 +1781,7 @@
       <c r="G31" s="65"/>
       <c r="H31" s="65"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1794,7 +1791,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1804,7 +1801,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1814,7 +1811,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1824,7 +1821,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1834,7 +1831,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1844,7 +1841,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1854,7 +1851,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1879,63 +1876,65 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="1.83203125" customWidth="1"/>
-    <col min="10" max="10" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
       <c r="B1" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="73"/>
+      <c r="K1" s="75"/>
       <c r="M1" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="C2" s="9">
+        <v>123500</v>
+      </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="J2" s="53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="61">
         <v>1400</v>
@@ -1944,20 +1943,20 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="J3" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="61">
-        <v>14300</v>
+        <v>15200</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>12</v>
@@ -1966,22 +1965,22 @@
         <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="67">
-        <v>18.84</v>
+        <v>13.85</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="J4" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="61">
         <v>560</v>
@@ -1993,23 +1992,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="J5" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="61">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
@@ -2017,16 +2016,16 @@
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="J6" s="53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="61">
-        <v>25400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="68">
         <v>65002</v>
@@ -2036,16 +2035,16 @@
       <c r="F7" s="25"/>
       <c r="G7" s="59"/>
       <c r="J7" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="61">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="49">
         <v>-23540</v>
@@ -2056,38 +2055,38 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="J8" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="61">
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C9" s="25">
         <f>$K$20</f>
-        <v>844582</v>
+        <v>859982</v>
       </c>
       <c r="D9" s="25">
         <f>$K$20</f>
-        <v>844582</v>
+        <v>859982</v>
       </c>
       <c r="E9" s="25">
         <f>$K$20</f>
-        <v>844582</v>
+        <v>859982</v>
       </c>
       <c r="F9" s="25"/>
       <c r="J9" s="54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K9" s="61">
         <v>165000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="24"/>
       <c r="C10" s="33"/>
@@ -2097,32 +2096,32 @@
       <c r="J10" s="55"/>
       <c r="K10" s="57"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="17">
         <f t="shared" ref="C11:D11" si="0">SUM(C2:C10)</f>
-        <v>886044</v>
+        <v>1024944</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
-        <v>821042</v>
+        <v>836442</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" ref="E11" si="1">SUM(E2:E10)</f>
-        <v>844582</v>
+        <v>859982</v>
       </c>
       <c r="F11" s="17"/>
       <c r="J11" s="56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11" s="62">
         <v>93000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -2130,63 +2129,62 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="J12" s="56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K12" s="62">
         <v>40800</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="25">
+        <v>5948900</v>
+      </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="J13" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K13" s="61">
         <v>52000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="24" t="s">
-        <v>18</v>
+      <c r="B14" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="J14" s="54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K14" s="61">
         <v>54000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="J15" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15" s="61">
         <v>285722</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -2194,13 +2192,13 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="J16" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" s="61">
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2208,20 +2206,23 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="J17" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17" s="61">
         <v>14800</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="17">
+        <f t="shared" ref="C18:D18" si="2">SUM(C13:C17)</f>
+        <v>5948900</v>
+      </c>
       <c r="D18" s="17">
-        <f t="shared" ref="D18" si="2">SUM(D13:D17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="17">
@@ -2230,99 +2231,99 @@
       </c>
       <c r="F18" s="17"/>
       <c r="J18" s="54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K18" s="61">
         <v>31500</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="22">
         <f t="shared" ref="C20:D20" si="4">SUM(C18-C11)</f>
-        <v>-886044</v>
+        <v>4923956</v>
       </c>
       <c r="D20" s="22">
         <f t="shared" si="4"/>
-        <v>-821042</v>
+        <v>-836442</v>
       </c>
       <c r="E20" s="22">
         <f t="shared" ref="E20" si="5">SUM(E18-E11)</f>
-        <v>-844582</v>
+        <v>-859982</v>
       </c>
       <c r="F20" s="22"/>
       <c r="J20" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20" s="30">
         <f>SUM(K2:K18)</f>
-        <v>844582</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="75">
+        <v>859982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="71">
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
       <c r="F29" s="60"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="60"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="60"/>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
@@ -2345,51 +2346,51 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>47</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="47"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>49</v>
       </c>
       <c r="B2" s="36">
         <v>21158.32</v>
@@ -2416,9 +2417,9 @@
         <v>130602</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="36">
         <v>4130.45</v>
@@ -2442,9 +2443,9 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="36">
         <v>1901.09</v>
@@ -2468,9 +2469,9 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="36">
         <v>5108.7</v>
@@ -2494,9 +2495,9 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="36">
         <v>3650</v>
@@ -2520,7 +2521,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="36">
         <v>2607.06</v>
       </c>
@@ -2543,7 +2544,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="36">
         <v>4529.43</v>
       </c>
@@ -2566,7 +2567,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="36">
         <v>1470.31</v>
       </c>
@@ -2589,7 +2590,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="36">
         <v>8867.19</v>
       </c>
@@ -2612,7 +2613,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="36">
         <v>12000</v>
       </c>
@@ -2635,7 +2636,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
         <v>420</v>
       </c>
@@ -2658,7 +2659,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="35">
         <v>5757</v>
       </c>
@@ -2681,7 +2682,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="35">
         <v>1543</v>
       </c>
@@ -2704,7 +2705,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="35">
         <v>1284</v>
       </c>
@@ -2727,7 +2728,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="35">
         <v>2948</v>
       </c>
@@ -2750,7 +2751,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="35">
         <v>3200</v>
       </c>
@@ -2773,7 +2774,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="37">
         <v>5199</v>
       </c>
@@ -2796,7 +2797,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="37">
         <v>5019</v>
       </c>
@@ -2819,7 +2820,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="37">
         <v>1604</v>
       </c>
@@ -2842,7 +2843,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="37">
         <v>3184</v>
       </c>
@@ -2865,7 +2866,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="37">
         <v>2374</v>
       </c>
@@ -2888,7 +2889,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="35">
         <v>1450</v>
       </c>
@@ -2911,7 +2912,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="35">
         <v>4310</v>
       </c>
@@ -2934,7 +2935,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="35">
         <v>540</v>
       </c>
@@ -2956,7 +2957,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="35">
         <v>3313.44</v>
       </c>
@@ -2979,7 +2980,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="35">
         <v>2700</v>
       </c>
@@ -3002,7 +3003,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="35">
         <v>950</v>
       </c>
@@ -3025,7 +3026,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="40">
         <v>6000</v>
       </c>
@@ -3048,7 +3049,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="40">
         <v>4900</v>
       </c>
@@ -3071,7 +3072,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="40">
         <v>8300</v>
       </c>
@@ -3092,7 +3093,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="40">
         <v>6000</v>
       </c>
@@ -3113,7 +3114,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="37">
         <v>6800</v>
       </c>
@@ -3134,7 +3135,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="46">
@@ -3153,7 +3154,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -3170,7 +3171,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -3187,7 +3188,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -3204,7 +3205,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -3221,7 +3222,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -3238,7 +3239,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -3255,7 +3256,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -3272,7 +3273,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -3289,7 +3290,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -3306,7 +3307,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -3323,7 +3324,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3340,7 +3341,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -3355,7 +3356,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -3370,7 +3371,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3386,7 +3387,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -3399,7 +3400,7 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -3412,7 +3413,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -3425,7 +3426,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3438,7 +3439,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -3451,7 +3452,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -3464,7 +3465,7 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3477,7 +3478,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -3490,7 +3491,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -3503,7 +3504,7 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3516,7 +3517,7 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -3529,7 +3530,7 @@
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -3542,7 +3543,7 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3555,7 +3556,7 @@
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -3568,7 +3569,7 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3581,7 +3582,7 @@
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3594,7 +3595,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -3607,7 +3608,7 @@
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3620,7 +3621,7 @@
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -3633,7 +3634,7 @@
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -3646,7 +3647,7 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -3659,9 +3660,9 @@
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
     </row>
-    <row r="71" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71" s="1">
         <f>SUM(B2:B70)</f>
@@ -3708,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B73" s="38"/>
       <c r="C73" s="39">
         <f>(C71-B71)/B71</f>
